--- a/fuentes/contenidos/grado07/guion07/CN_07_07_CO_.xlsx
+++ b/fuentes/contenidos/grado07/guion07/CN_07_07_CO_.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\ESCALETAS\Escaletas  grupo  3\CN_07_07_CO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="CN_07_07_CO" sheetId="5" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_07_07_CO!$A$2:$V$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_07_07_CO!$P$1:$P$139</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="241">
   <si>
     <t>Asignatura</t>
   </si>
@@ -738,6 +733,15 @@
   </si>
   <si>
     <t>Interactivo en el que se muestra y describe cómo la energía fluye en los ecosistemass</t>
+  </si>
+  <si>
+    <t>Recurso F6-02</t>
+  </si>
+  <si>
+    <t>Recursos adicionales 01</t>
+  </si>
+  <si>
+    <t>RF_01_02_CO</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1246,7 +1250,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1457,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46:U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1481,7 @@
     <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="3" customWidth="1"/>
     <col min="14" max="14" width="10" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="21" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" style="24" customWidth="1"/>
     <col min="17" max="17" width="11" style="21" customWidth="1"/>
     <col min="18" max="18" width="23" style="3" bestFit="1" customWidth="1"/>
@@ -2031,7 +2035,7 @@
         <v>132</v>
       </c>
       <c r="T12" s="60" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="U12" s="58" t="s">
         <v>133</v>
@@ -3665,16 +3669,16 @@
         <v>6</v>
       </c>
       <c r="R46" s="59" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="S46" s="58" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="T46" s="60" t="s">
         <v>204</v>
       </c>
       <c r="U46" s="58" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4731,19 +4735,6 @@
       <c r="T88" s="20"/>
       <c r="U88" s="18"/>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>93</v>
@@ -4930,7 +4921,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:V49"/>
   <mergeCells count="20">
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
